--- a/data/TK avioituvuus.xlsx
+++ b/data/TK avioituvuus.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttitanskanen/Github/Syntyvyyden-tekij-t/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAADB0-D868-9341-B1D0-3A702142D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC927041-5254-6447-95F1-424E8252CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24440" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_121u_2021" sheetId="2" r:id="rId1"/>
-    <sheet name="Taul1" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="logistic" sheetId="4" r:id="rId3"/>
+    <sheet name="inv log" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -81,8 +83,56 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DefaultAppPool</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C9C9632D-F34A-F646-BF6B-004FDE023A66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Avioliiton solmineet henkilöt vastaavan keskiväkiluvun 1 000 ei-naimisissa ja ei-rekisteröidyssä parisuhteessa olevaa 15 vuotta täyttänyttä henkilöä kohti. Tieto lasketaan vain avioliitoille, joissa puolisot ovat eri sukupuolta.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DefaultAppPool</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{AF4917A2-5E89-424B-9D23-0A2F9669C9E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Avioliiton solmineet henkilöt vastaavan keskiväkiluvun 1 000 ei-naimisissa ja ei-rekisteröidyssä parisuhteessa olevaa 15 vuotta täyttänyttä henkilöä kohti. Tieto lasketaan vain avioliitoille, joissa puolisot ovat eri sukupuolta.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
   <si>
     <t>Avioituvuus ja eronneisuus muuttujina Tiedot, Vuosi, Sukupuoli ja Ikä</t>
   </si>
@@ -266,13 +316,36 @@
   <si>
     <t>10ka</t>
   </si>
+  <si>
+    <t>vuosi</t>
+  </si>
+  <si>
+    <t>delta2529</t>
+  </si>
+  <si>
+    <t>delta3034</t>
+  </si>
+  <si>
+    <t>ewma2529</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>ewma</t>
+  </si>
+  <si>
+    <t>ewma3034</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -322,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +404,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -403,7 +478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$H$1:$H$2</c:f>
+              <c:f>data!$H$1:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
               </c:strCache>
@@ -423,7 +498,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$G$3:$G$46</c:f>
+              <c:f>data!$G$3:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -526,38 +601,38 @@
                   <c:v>35,0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33,7</c:v>
+                  <c:v>36,5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32,4</c:v>
+                  <c:v>34,1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>31,1</c:v>
+                  <c:v>31,6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29,8</c:v>
+                  <c:v>29,2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28,5</c:v>
+                  <c:v>26,7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27,2</c:v>
+                  <c:v>24,3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25,9</c:v>
+                  <c:v>21,9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24,6</c:v>
+                  <c:v>19,4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23,3</c:v>
+                  <c:v>17,0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$H$3:$H$46</c:f>
+              <c:f>data!$H$3:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="44"/>
@@ -661,31 +736,31 @@
                   <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.600000000000009</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38.500000000000014</c:v>
+                  <c:v>41.620000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.40000000000002</c:v>
+                  <c:v>40.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.300000000000026</c:v>
+                  <c:v>38.460000000000008</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.200000000000031</c:v>
+                  <c:v>36.88000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.100000000000037</c:v>
+                  <c:v>35.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.000000000000043</c:v>
+                  <c:v>33.720000000000013</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31.900000000000045</c:v>
+                  <c:v>32.140000000000015</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.800000000000047</c:v>
+                  <c:v>30.560000000000016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +943,1811 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>logistic!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logistic!$C$4:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logistic!$D$4:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8152899666382489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4565210390557701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7190001149456264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6656874577527163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2950456896547458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2950456896547458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1254595387042978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.087973890463054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.06686359035353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2026732589838505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97945468234855959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3492072924575549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1308731508863306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4565210390557701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4178427188548168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2083112059245342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3129118151858661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4178427188548168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1802903196823771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1472048439049751</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79544835883442477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82832195892819771</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39298055144591904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26962157572526246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18855667693894732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10409389104263336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.2011722088179509E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.18855667693894729</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.43471917919023717</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.56236682130731264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.61903920840622351</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.55372764531020013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.57501461740107962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.59630158949195911</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.61758856158283859</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.63887553367371808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.66016250576459756</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.68144947785547705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.70273644994635653</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.72402342203723602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85A0-454A-A37F-61CCF5EFB902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>logistic!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logistic!$C$4:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logistic!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5.6014641554671306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000666706669435E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0000666706669543E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14424960884454691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16839681732546141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10409389104263336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21684573472721941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4007100728832446E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10810516004942952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12014431184206341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36810086136329628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20875481386211039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39298055144591904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39713866533161052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80479854686992414</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9345624981101105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80479854686992414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0098970434864019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1039527552994266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97945468234855959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.02528101558256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85683991752040711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68117098951322974</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39713866533161052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30637420546393374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24116205681688824</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15229366908004516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4007100728832446E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.13621020483454893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.28593229072799314</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.30228087187293351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.37638121355513038</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.27369583047704077</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.26112940192886108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.2485629733806814</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.23599654483250171</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.22343011628432202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.21086368773614234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19829725918796265</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.18573083063978296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.17316440209160328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85A0-454A-A37F-61CCF5EFB902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376256976"/>
+        <c:axId val="376258704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376256976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376258704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376258704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376256976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inv log'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'inv log'!$C$4:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'inv log'!$D$4:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.008053507664343</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.519028690521381</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.033009392188816</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.550077075653839</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.070310782759208</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.593787097485503</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.120580113028318</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.650761402659732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0C6-8841-845B-77F2C65E0853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inv log'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'inv log'!$C$4:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'inv log'!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.79999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.508609648211234</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.817723188791561</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.127317391770511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.437368878863445</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.747854130361873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.058749492115986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45.37003118260516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.681675300092024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0C6-8841-845B-77F2C65E0853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376306400"/>
+        <c:axId val="376298064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376306400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376298064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376298064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376306400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1424,6 +3303,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1431,13 +4342,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>298899</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97239</xdr:rowOff>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>201404</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146500</xdr:rowOff>
+      <xdr:rowOff>159328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1445,6 +4356,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A6686F-754B-D444-9666-1A4ABA4A4F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Kaavio 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79CB419-DE73-8613-275A-0DB3E4080791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Kaavio 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC85F30-F3D4-932E-85DE-303FDF13A2DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +4746,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2418,6 +5411,26 @@
       </c>
       <c r="H35" s="3">
         <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43.2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2583,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9A92E-C3B7-934F-B598-CDE2058E60AA}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3010,12 +6023,6 @@
       <c r="H23" s="3">
         <v>72.7</v>
       </c>
-      <c r="J23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
@@ -3036,13 +6043,11 @@
       <c r="H24" s="3">
         <v>73.599999999999994</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" ref="J24:J28" si="0">G24-G23</f>
-        <v>-0.59999999999999432</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" ref="K24:K29" si="1">H24-H23</f>
-        <v>0.89999999999999147</v>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
@@ -3065,11 +6070,11 @@
         <v>70.2</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f>G25-G24</f>
         <v>-7</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="1"/>
+        <f>H25-H24</f>
         <v>-3.3999999999999915</v>
       </c>
     </row>
@@ -3093,11 +6098,11 @@
         <v>66.400000000000006</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J26:J36" si="0">G26-G25</f>
         <v>0.69999999999998863</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K26:K36" si="1">H26-H25</f>
         <v>-3.7999999999999972</v>
       </c>
     </row>
@@ -3177,7 +6182,7 @@
         <v>56</v>
       </c>
       <c r="J29" s="3">
-        <f>G29-G28</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="K29" s="3">
@@ -3205,11 +6210,11 @@
         <v>53.8</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:J34" si="2">G30-G29</f>
+        <f t="shared" si="0"/>
         <v>-2.1000000000000014</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" ref="K30:K35" si="3">H30-H29</f>
+        <f t="shared" si="1"/>
         <v>-2.2000000000000028</v>
       </c>
     </row>
@@ -3233,11 +6238,11 @@
         <v>51.1</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-3.8999999999999986</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-2.6999999999999957</v>
       </c>
     </row>
@@ -3261,11 +6266,11 @@
         <v>46.6</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-3.4000000000000057</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -3289,24 +6294,12 @@
         <v>42.9</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
-      </c>
-      <c r="M33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N33" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -3329,12 +6322,24 @@
         <v>42.5</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.39999999999999858</v>
+      </c>
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3357,112 +6362,126 @@
         <v>40.700000000000003</v>
       </c>
       <c r="J35" s="3">
-        <f>G35-G34</f>
+        <f t="shared" si="0"/>
         <v>-1.2999999999999972</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="M35" s="3">
-        <f>J35</f>
-        <v>-1.2999999999999972</v>
-      </c>
-      <c r="N35" s="3">
-        <f>AVERAGE(K34:K35)</f>
-        <v>-1.0999999999999979</v>
-      </c>
-      <c r="O35" s="3">
-        <f>AVERAGE(J24:J35)</f>
-        <v>-3.4583333333333335</v>
-      </c>
-      <c r="P35" s="3">
-        <f>AVERAGE(K24:K35)</f>
-        <v>-2.6666666666666665</v>
-      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <f>1+C35</f>
+      <c r="C36" s="2">
         <v>2022</v>
       </c>
+      <c r="D36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="3">
-        <f>G35+$M$35</f>
-        <v>33.700000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="H36" s="3">
-        <f>H35+$N$35</f>
-        <v>39.600000000000009</v>
+        <v>43.2</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="M36" s="3">
+        <f>AVERAGE(J32:J36)</f>
+        <v>-2.4400000000000004</v>
+      </c>
+      <c r="N36" s="3">
+        <f>AVERAGE(K32:K36)</f>
+        <v>-1.5799999999999996</v>
+      </c>
+      <c r="O36" s="3">
+        <f>AVERAGE(J25:J36)</f>
+        <v>-3.2833333333333337</v>
+      </c>
+      <c r="P36" s="3">
+        <f>AVERAGE(K25:K36)</f>
+        <v>-2.5333333333333328</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C37">
-        <f t="shared" ref="C37:C44" si="4">1+C36</f>
+        <f t="shared" ref="C37:C44" si="2">1+C36</f>
         <v>2023</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:G44" si="5">G36+$M$35</f>
-        <v>32.400000000000006</v>
+        <f>G36+$M$36</f>
+        <v>34.06</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" ref="H37:H44" si="6">H36+$N$35</f>
-        <v>38.500000000000014</v>
+        <f>H36+$N$36</f>
+        <v>41.620000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="5"/>
-        <v>31.100000000000009</v>
+        <f>G37+$M$36</f>
+        <v>31.62</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="6"/>
-        <v>37.40000000000002</v>
+        <f>H37+$N$36</f>
+        <v>40.040000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="5"/>
-        <v>29.800000000000011</v>
+        <f>G38+$M$36</f>
+        <v>29.18</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="6"/>
-        <v>36.300000000000026</v>
+        <f>H38+$N$36</f>
+        <v>38.460000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="5"/>
-        <v>28.500000000000014</v>
+        <f>G39+$M$36</f>
+        <v>26.74</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="6"/>
-        <v>35.200000000000031</v>
+        <f>H39+$N$36</f>
+        <v>36.88000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="5"/>
-        <v>27.200000000000017</v>
+        <f>G40+$M$36</f>
+        <v>24.299999999999997</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="6"/>
-        <v>34.100000000000037</v>
+        <f>H40+$N$36</f>
+        <v>35.300000000000011</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -3470,44 +6489,44 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="5"/>
-        <v>25.90000000000002</v>
+        <f>G41+$M$36</f>
+        <v>21.859999999999996</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="6"/>
-        <v>33.000000000000043</v>
+        <f>H41+$N$36</f>
+        <v>33.720000000000013</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="5"/>
-        <v>24.600000000000023</v>
+        <f>G42+$M$36</f>
+        <v>19.419999999999995</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="6"/>
-        <v>31.900000000000045</v>
+        <f>H42+$N$36</f>
+        <v>32.140000000000015</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="5"/>
-        <v>23.300000000000026</v>
+        <f>G43+$M$36</f>
+        <v>16.979999999999993</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="6"/>
-        <v>30.800000000000047</v>
+        <f>H43+$N$36</f>
+        <v>30.560000000000016</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -3520,6 +6539,2008 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF610C-9CB8-7D45-B695-588E1C259355}">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="237" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1990</v>
+      </c>
+      <c r="D4" s="7">
+        <f>LN(data!G4/100/(1-data!G4/100))</f>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="E4" s="7">
+        <f>LN(data!H4/100/(1-data!H4/100))</f>
+        <v>5.6014641554671306E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <f>1+C4</f>
+        <v>1991</v>
+      </c>
+      <c r="D5" s="7">
+        <f>LN(data!G5/100/(1-data!G5/100))</f>
+        <v>1.8152899666382489</v>
+      </c>
+      <c r="E5" s="7">
+        <f>LN(data!H5/100/(1-data!H5/100))</f>
+        <v>2.0000666706669435E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G24" si="0">D5-D4</f>
+        <v>-0.1306201824170643</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5-E4</f>
+        <v>-3.6013974848001867E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G5</f>
+        <v>-0.1306201824170643</v>
+      </c>
+      <c r="J5" s="3">
+        <f>H5</f>
+        <v>-3.6013974848001867E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C44" si="1">1+C5</f>
+        <v>1992</v>
+      </c>
+      <c r="D6" s="7">
+        <f>LN(data!G6/100/(1-data!G6/100))</f>
+        <v>1.4565210390557701</v>
+      </c>
+      <c r="E6" s="7">
+        <f>LN(data!H6/100/(1-data!H6/100))</f>
+        <v>-2.0000666706669543E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.3587689275824788</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H36" si="2">E6-E5</f>
+        <v>-4.0001333413338974E-2</v>
+      </c>
+      <c r="I6">
+        <f>(1-$M$3)*I5+$M$3*G6</f>
+        <v>-0.24469455499977155</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J36" si="3">(1-$M$3)*J5+$M$3*H6</f>
+        <v>-3.8007654130670421E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>1993</v>
+      </c>
+      <c r="D7" s="7">
+        <f>LN(data!G7/100/(1-data!G7/100))</f>
+        <v>1.7190001149456264</v>
+      </c>
+      <c r="E7" s="7">
+        <f>LN(data!H7/100/(1-data!H7/100))</f>
+        <v>0.14424960884454691</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26247907588985631</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16425027555121646</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I36" si="4">(1-$M$3)*I6+$M$3*G7</f>
+        <v>8.892260445042377E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>6.3121310710273021E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>1994</v>
+      </c>
+      <c r="D8" s="7">
+        <f>LN(data!G8/100/(1-data!G8/100))</f>
+        <v>1.6656874577527163</v>
+      </c>
+      <c r="E8" s="7">
+        <f>LN(data!H8/100/(1-data!H8/100))</f>
+        <v>0.16839681732546141</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.3312657192910118E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4147208480914506E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-2.221019837393387E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>4.3634259595593763E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>1995</v>
+      </c>
+      <c r="D9" s="7">
+        <f>LN(data!G9/100/(1-data!G9/100))</f>
+        <v>1.2950456896547458</v>
+      </c>
+      <c r="E9" s="7">
+        <f>LN(data!H9/100/(1-data!H9/100))</f>
+        <v>0.10409389104263336</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.37064176809797056</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.4302926282828049E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-0.19642598323595223</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>-1.0334333343617143E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>1996</v>
+      </c>
+      <c r="D10" s="7">
+        <f>LN(data!G10/100/(1-data!G10/100))</f>
+        <v>1.2950456896547458</v>
+      </c>
+      <c r="E10" s="7">
+        <f>LN(data!H10/100/(1-data!H10/100))</f>
+        <v>0.21684573472721941</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11275184368458605</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-9.8212991617976114E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>5.1208755170484455E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="D11" s="7">
+        <f>LN(data!G11/100/(1-data!G11/100))</f>
+        <v>1.1254595387042978</v>
+      </c>
+      <c r="E11" s="7">
+        <f>LN(data!H11/100/(1-data!H11/100))</f>
+        <v>4.4007100728832446E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.16958615095044793</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.17283863399838695</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-0.13389957128421204</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>-6.0814939413951247E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+      <c r="D12" s="7">
+        <f>LN(data!G12/100/(1-data!G12/100))</f>
+        <v>1.087973890463054</v>
+      </c>
+      <c r="E12" s="7">
+        <f>LN(data!H12/100/(1-data!H12/100))</f>
+        <v>0.10810516004942952</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.7485648241243785E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4098059320597076E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-8.5692609762727912E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1.6415599533229144E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+      <c r="D13" s="7">
+        <f>LN(data!G13/100/(1-data!G13/100))</f>
+        <v>1.06686359035353</v>
+      </c>
+      <c r="E13" s="7">
+        <f>LN(data!H13/100/(1-data!H13/100))</f>
+        <v>0.12014431184206341</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.1110300109524083E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2039151792633887E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>-5.3401454936125997E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>6.8403558729784007E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="7">
+        <f>LN(data!G14/100/(1-data!G14/100))</f>
+        <v>1.2026732589838505</v>
+      </c>
+      <c r="E14" s="7">
+        <f>LN(data!H14/100/(1-data!H14/100))</f>
+        <v>0.36810086136329628</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13580966863032051</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24795654952123286</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>4.1204106847097258E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.12739845269710562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+      <c r="D15" s="7">
+        <f>LN(data!G15/100/(1-data!G15/100))</f>
+        <v>0.97945468234855959</v>
+      </c>
+      <c r="E15" s="7">
+        <f>LN(data!H15/100/(1-data!H15/100))</f>
+        <v>0.20875481386211039</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.22321857663529088</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.15934604750118589</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>-9.1007234894096817E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>-1.5973797402040135E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="D16" s="7">
+        <f>LN(data!G16/100/(1-data!G16/100))</f>
+        <v>1.3492072924575549</v>
+      </c>
+      <c r="E16" s="7">
+        <f>LN(data!H16/100/(1-data!H16/100))</f>
+        <v>0.39298055144591904</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36975261010899529</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18422573758380864</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.13937268760744925</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>8.4125970090884253E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+      <c r="D17" s="7">
+        <f>LN(data!G17/100/(1-data!G17/100))</f>
+        <v>1.1308731508863306</v>
+      </c>
+      <c r="E17" s="7">
+        <f>LN(data!H17/100/(1-data!H17/100))</f>
+        <v>0.39713866533161052</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.21833414157122433</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1581138856914834E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>-3.9480726981887537E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>4.4142041988287868E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="D18" s="7">
+        <f>LN(data!G18/100/(1-data!G18/100))</f>
+        <v>1.4565210390557701</v>
+      </c>
+      <c r="E18" s="7">
+        <f>LN(data!H18/100/(1-data!H18/100))</f>
+        <v>0.80479854686992414</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32564788816943957</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.40765988153831362</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.14308358059377602</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.22590096176330074</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="D19" s="7">
+        <f>LN(data!G19/100/(1-data!G19/100))</f>
+        <v>1.4178427188548168</v>
+      </c>
+      <c r="E19" s="7">
+        <f>LN(data!H19/100/(1-data!H19/100))</f>
+        <v>0.9345624981101105</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.8678320200953298E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12976395124018636</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>5.2202630196411359E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.17783245650174356</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="D20" s="7">
+        <f>LN(data!G20/100/(1-data!G20/100))</f>
+        <v>1.2083112059245342</v>
+      </c>
+      <c r="E20" s="7">
+        <f>LN(data!H20/100/(1-data!H20/100))</f>
+        <v>0.80479854686992414</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.2095315129302826</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12976395124018636</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-7.8664441366935622E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>2.4034252630778602E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="D21" s="7">
+        <f>LN(data!G21/100/(1-data!G21/100))</f>
+        <v>1.3129118151858661</v>
+      </c>
+      <c r="E21" s="7">
+        <f>LN(data!H21/100/(1-data!H21/100))</f>
+        <v>1.0098970434864019</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10460060926133186</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20509849661647772</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>1.2968083947198117E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.11456637462362816</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="D22" s="7">
+        <f>LN(data!G22/100/(1-data!G22/100))</f>
+        <v>1.4178427188548168</v>
+      </c>
+      <c r="E22" s="7">
+        <f>LN(data!H22/100/(1-data!H22/100))</f>
+        <v>1.1039527552994266</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10493090366895075</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4055711813024745E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>5.8949493808074432E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.10431104321832646</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="D23" s="7">
+        <f>LN(data!G23/100/(1-data!G23/100))</f>
+        <v>1.1802903196823771</v>
+      </c>
+      <c r="E23" s="7">
+        <f>LN(data!H23/100/(1-data!H23/100))</f>
+        <v>0.97945468234855959</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.23755239917243975</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12449807295086701</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-8.9301452682182661E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>-1.0093514866270276E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="D24" s="7">
+        <f>LN(data!G24/100/(1-data!G24/100))</f>
+        <v>1.1472048439049751</v>
+      </c>
+      <c r="E24" s="7">
+        <f>LN(data!H24/100/(1-data!H24/100))</f>
+        <v>1.02528101558256</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.3085475777401951E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5826333234000427E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-6.1193464229792306E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1.7866409183865076E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="D25" s="7">
+        <f>LN(data!G25/100/(1-data!G25/100))</f>
+        <v>0.79544835883442477</v>
+      </c>
+      <c r="E25" s="7">
+        <f>LN(data!H25/100/(1-data!H25/100))</f>
+        <v>0.85683991752040711</v>
+      </c>
+      <c r="G25" s="3">
+        <f>D25-D24</f>
+        <v>-0.35175648507055035</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.16844109806215291</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-0.20647497465017134</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>-7.5287344439143922E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="D26" s="7">
+        <f>LN(data!G26/100/(1-data!G26/100))</f>
+        <v>0.82832195892819771</v>
+      </c>
+      <c r="E26" s="7">
+        <f>LN(data!H26/100/(1-data!H26/100))</f>
+        <v>0.68117098951322974</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ref="G26:G36" si="5">D26-D25</f>
+        <v>3.2873600093772937E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.17566892800717737</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>-8.6800687278199201E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>-0.12547813622316065</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="D27" s="7">
+        <f>LN(data!G27/100/(1-data!G27/100))</f>
+        <v>0.39298055144591904</v>
+      </c>
+      <c r="E27" s="7">
+        <f>LN(data!H27/100/(1-data!H27/100))</f>
+        <v>0.39713866533161052</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.43534140748227868</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.28403232418161922</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>-0.26107104738023895</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>-0.20475523020238995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="D28" s="7">
+        <f>LN(data!G28/100/(1-data!G28/100))</f>
+        <v>0.26962157572526246</v>
+      </c>
+      <c r="E28" s="7">
+        <f>LN(data!H28/100/(1-data!H28/100))</f>
+        <v>0.30637420546393374</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.12335897572065657</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>-9.0764459867676783E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-0.19221501155044776</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-0.14775984503503337</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="D29" s="7">
+        <f>LN(data!G29/100/(1-data!G29/100))</f>
+        <v>0.18855667693894732</v>
+      </c>
+      <c r="E29" s="7">
+        <f>LN(data!H29/100/(1-data!H29/100))</f>
+        <v>0.24116205681688824</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.1064898786315148E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.5212148647045498E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>-0.13663995516838146</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>-0.10648599684103943</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="D30" s="7">
+        <f>LN(data!G30/100/(1-data!G30/100))</f>
+        <v>0.10409389104263336</v>
+      </c>
+      <c r="E30" s="7">
+        <f>LN(data!H30/100/(1-data!H30/100))</f>
+        <v>0.15229366908004516</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.4462785896313952E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.886838773684308E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>-0.1105513705323477</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-9.7677192288941256E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="D31" s="7">
+        <f>LN(data!G31/100/(1-data!G31/100))</f>
+        <v>-5.2011722088179509E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <f>LN(data!H31/100/(1-data!H31/100))</f>
+        <v>4.4007100728832446E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.15610561313081286</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.10828656835121271</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>-0.1333284918315803</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>-0.10298188032007699</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="D32" s="7">
+        <f>LN(data!G32/100/(1-data!G32/100))</f>
+        <v>-0.18855667693894729</v>
+      </c>
+      <c r="E32" s="7">
+        <f>LN(data!H32/100/(1-data!H32/100))</f>
+        <v>-0.13621020483454893</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.13654495485076779</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.18021730556338139</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>-0.13493672334117404</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>-0.14159959294172919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="D33" s="7">
+        <f>LN(data!G33/100/(1-data!G33/100))</f>
+        <v>-0.43471917919023717</v>
+      </c>
+      <c r="E33" s="7">
+        <f>LN(data!H33/100/(1-data!H33/100))</f>
+        <v>-0.28593229072799314</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.24616250225128988</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14972208589344421</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>-0.19054961279623195</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>-0.1456608394175867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="D34" s="7">
+        <f>LN(data!G34/100/(1-data!G34/100))</f>
+        <v>-0.56236682130731264</v>
+      </c>
+      <c r="E34" s="7">
+        <f>LN(data!H34/100/(1-data!H34/100))</f>
+        <v>-0.30228087187293351</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.12764764211707547</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.6348581144940366E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>-0.15909862745665371</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-8.1004710281263534E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="D35" s="7">
+        <f>LN(data!G35/100/(1-data!G35/100))</f>
+        <v>-0.61903920840622351</v>
+      </c>
+      <c r="E35" s="7">
+        <f>LN(data!H35/100/(1-data!H35/100))</f>
+        <v>-0.37638121355513038</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="5"/>
+        <v>-5.667238709891087E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.4100341682196869E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>-0.10788550727778229</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>-7.7552525981730208E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="D36" s="7">
+        <f>LN(data!G36/100/(1-data!G36/100))</f>
+        <v>-0.55372764531020013</v>
+      </c>
+      <c r="E36" s="7">
+        <f>LN(data!H36/100/(1-data!H36/100))</f>
+        <v>-0.27369583047704077</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5311563096023373E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10268538307808961</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>-2.1286972090879458E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>1.2566428548179701E-2</v>
+      </c>
+      <c r="M36">
+        <f>I36</f>
+        <v>-2.1286972090879458E-2</v>
+      </c>
+      <c r="N36">
+        <f>J36</f>
+        <v>1.2566428548179701E-2</v>
+      </c>
+      <c r="O36" s="6">
+        <f>AVERAGE(G32:G36)</f>
+        <v>-0.10034318464440413</v>
+      </c>
+      <c r="P36" s="6">
+        <f>AVERAGE(H32:H36)</f>
+        <v>-6.3540586241174646E-2</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>AVERAGE(G25:G36)</f>
+        <v>-0.14174437410126461</v>
+      </c>
+      <c r="R36" s="6">
+        <f>AVERAGE(H25:H36)</f>
+        <v>-0.10824807050496675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="D37" s="7">
+        <f>D36+$M$36</f>
+        <v>-0.57501461740107962</v>
+      </c>
+      <c r="E37" s="7">
+        <f>E36+$N$36</f>
+        <v>-0.26112940192886108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" ref="D38:D44" si="6">D37+$M$36</f>
+        <v>-0.59630158949195911</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" ref="E38:E44" si="7">E37+$N$36</f>
+        <v>-0.2485629733806814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.61758856158283859</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.23599654483250171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.63887553367371808</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.22343011628432202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.66016250576459756</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.21086368773614234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.68144947785547705</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.19829725918796265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.70273644994635653</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.18573083063978296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.72402342203723602</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.17316440209160328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:C48" si="8">1+C44</f>
+        <v>2031</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45:D48" si="9">D44+$M$36</f>
+        <v>-0.74531039412811551</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" ref="E45:E48" si="10">E44+$N$36</f>
+        <v>-0.16059797354342359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="8"/>
+        <v>2032</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.76659736621899499</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="10"/>
+        <v>-0.1480315449952439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <f t="shared" si="8"/>
+        <v>2033</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.78788433830987448</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="10"/>
+        <v>-0.13546511644706422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <f t="shared" si="8"/>
+        <v>2034</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.80917131040075396</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="10"/>
+        <v>-0.12289868789888451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A452D8-8149-AC4C-A70E-ED58DEACCD09}">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1990</v>
+      </c>
+      <c r="D4" s="7">
+        <f>EXP(logistic!D4)/(1+EXP(logistic!D4))*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="E4" s="7">
+        <f>EXP(logistic!E4)/(1+EXP(logistic!E4))*100</f>
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <f>1+C4</f>
+        <v>1991</v>
+      </c>
+      <c r="D5" s="7">
+        <f>EXP(logistic!D5)/(1+EXP(logistic!D5))*100</f>
+        <v>86</v>
+      </c>
+      <c r="E5" s="7">
+        <f>EXP(logistic!E5)/(1+EXP(logistic!E5))*100</f>
+        <v>50.5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C44" si="0">1+C5</f>
+        <v>1992</v>
+      </c>
+      <c r="D6" s="7">
+        <f>EXP(logistic!D6)/(1+EXP(logistic!D6))*100</f>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E6" s="7">
+        <f>EXP(logistic!E6)/(1+EXP(logistic!E6))*100</f>
+        <v>49.5</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="D7" s="7">
+        <f>EXP(logistic!D7)/(1+EXP(logistic!D7))*100</f>
+        <v>84.8</v>
+      </c>
+      <c r="E7" s="7">
+        <f>EXP(logistic!E7)/(1+EXP(logistic!E7))*100</f>
+        <v>53.6</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="D8" s="7">
+        <f>EXP(logistic!D8)/(1+EXP(logistic!D8))*100</f>
+        <v>84.1</v>
+      </c>
+      <c r="E8" s="7">
+        <f>EXP(logistic!E8)/(1+EXP(logistic!E8))*100</f>
+        <v>54.2</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="D9" s="7">
+        <f>EXP(logistic!D9)/(1+EXP(logistic!D9))*100</f>
+        <v>78.5</v>
+      </c>
+      <c r="E9" s="7">
+        <f>EXP(logistic!E9)/(1+EXP(logistic!E9))*100</f>
+        <v>52.6</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="D10" s="7">
+        <f>EXP(logistic!D10)/(1+EXP(logistic!D10))*100</f>
+        <v>78.5</v>
+      </c>
+      <c r="E10" s="7">
+        <f>EXP(logistic!E10)/(1+EXP(logistic!E10))*100</f>
+        <v>55.399999999999991</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="D11" s="7">
+        <f>EXP(logistic!D11)/(1+EXP(logistic!D11))*100</f>
+        <v>75.5</v>
+      </c>
+      <c r="E11" s="7">
+        <f>EXP(logistic!E11)/(1+EXP(logistic!E11))*100</f>
+        <v>51.1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="D12" s="7">
+        <f>EXP(logistic!D12)/(1+EXP(logistic!D12))*100</f>
+        <v>74.8</v>
+      </c>
+      <c r="E12" s="7">
+        <f>EXP(logistic!E12)/(1+EXP(logistic!E12))*100</f>
+        <v>52.700000000000017</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="D13" s="7">
+        <f>EXP(logistic!D13)/(1+EXP(logistic!D13))*100</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E13" s="7">
+        <f>EXP(logistic!E13)/(1+EXP(logistic!E13))*100</f>
+        <v>53.000000000000014</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="7">
+        <f>EXP(logistic!D14)/(1+EXP(logistic!D14))*100</f>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E14" s="7">
+        <f>EXP(logistic!E14)/(1+EXP(logistic!E14))*100</f>
+        <v>59.099999999999994</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="D15" s="7">
+        <f>EXP(logistic!D15)/(1+EXP(logistic!D15))*100</f>
+        <v>72.7</v>
+      </c>
+      <c r="E15" s="7">
+        <f>EXP(logistic!E15)/(1+EXP(logistic!E15))*100</f>
+        <v>55.2</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="D16" s="7">
+        <f>EXP(logistic!D16)/(1+EXP(logistic!D16))*100</f>
+        <v>79.399999999999991</v>
+      </c>
+      <c r="E16" s="7">
+        <f>EXP(logistic!E16)/(1+EXP(logistic!E16))*100</f>
+        <v>59.699999999999996</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="D17" s="7">
+        <f>EXP(logistic!D17)/(1+EXP(logistic!D17))*100</f>
+        <v>75.59999999999998</v>
+      </c>
+      <c r="E17" s="7">
+        <f>EXP(logistic!E17)/(1+EXP(logistic!E17))*100</f>
+        <v>59.8</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D18" s="7">
+        <f>EXP(logistic!D18)/(1+EXP(logistic!D18))*100</f>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E18" s="7">
+        <f>EXP(logistic!E18)/(1+EXP(logistic!E18))*100</f>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="D19" s="7">
+        <f>EXP(logistic!D19)/(1+EXP(logistic!D19))*100</f>
+        <v>80.5</v>
+      </c>
+      <c r="E19" s="7">
+        <f>EXP(logistic!E19)/(1+EXP(logistic!E19))*100</f>
+        <v>71.8</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="D20" s="7">
+        <f>EXP(logistic!D20)/(1+EXP(logistic!D20))*100</f>
+        <v>77.000000000000014</v>
+      </c>
+      <c r="E20" s="7">
+        <f>EXP(logistic!E20)/(1+EXP(logistic!E20))*100</f>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="D21" s="7">
+        <f>EXP(logistic!D21)/(1+EXP(logistic!D21))*100</f>
+        <v>78.8</v>
+      </c>
+      <c r="E21" s="7">
+        <f>EXP(logistic!E21)/(1+EXP(logistic!E21))*100</f>
+        <v>73.3</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D22" s="7">
+        <f>EXP(logistic!D22)/(1+EXP(logistic!D22))*100</f>
+        <v>80.5</v>
+      </c>
+      <c r="E22" s="7">
+        <f>EXP(logistic!E22)/(1+EXP(logistic!E22))*100</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="D23" s="7">
+        <f>EXP(logistic!D23)/(1+EXP(logistic!D23))*100</f>
+        <v>76.5</v>
+      </c>
+      <c r="E23" s="7">
+        <f>EXP(logistic!E23)/(1+EXP(logistic!E23))*100</f>
+        <v>72.7</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="D24" s="7">
+        <f>EXP(logistic!D24)/(1+EXP(logistic!D24))*100</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E24" s="7">
+        <f>EXP(logistic!E24)/(1+EXP(logistic!E24))*100</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="D25" s="7">
+        <f>EXP(logistic!D25)/(1+EXP(logistic!D25))*100</f>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E25" s="7">
+        <f>EXP(logistic!E25)/(1+EXP(logistic!E25))*100</f>
+        <v>70.2</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="D26" s="7">
+        <f>EXP(logistic!D26)/(1+EXP(logistic!D26))*100</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E26" s="7">
+        <f>EXP(logistic!E26)/(1+EXP(logistic!E26))*100</f>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="D27" s="7">
+        <f>EXP(logistic!D27)/(1+EXP(logistic!D27))*100</f>
+        <v>59.699999999999996</v>
+      </c>
+      <c r="E27" s="7">
+        <f>EXP(logistic!E27)/(1+EXP(logistic!E27))*100</f>
+        <v>59.8</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="D28" s="7">
+        <f>EXP(logistic!D28)/(1+EXP(logistic!D28))*100</f>
+        <v>56.7</v>
+      </c>
+      <c r="E28" s="7">
+        <f>EXP(logistic!E28)/(1+EXP(logistic!E28))*100</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="D29" s="7">
+        <f>EXP(logistic!D29)/(1+EXP(logistic!D29))*100</f>
+        <v>54.7</v>
+      </c>
+      <c r="E29" s="7">
+        <f>EXP(logistic!E29)/(1+EXP(logistic!E29))*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D30" s="7">
+        <f>EXP(logistic!D30)/(1+EXP(logistic!D30))*100</f>
+        <v>52.6</v>
+      </c>
+      <c r="E30" s="7">
+        <f>EXP(logistic!E30)/(1+EXP(logistic!E30))*100</f>
+        <v>53.79999999999999</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="D31" s="7">
+        <f>EXP(logistic!D31)/(1+EXP(logistic!D31))*100</f>
+        <v>48.7</v>
+      </c>
+      <c r="E31" s="7">
+        <f>EXP(logistic!E31)/(1+EXP(logistic!E31))*100</f>
+        <v>51.1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D32" s="7">
+        <f>EXP(logistic!D32)/(1+EXP(logistic!D32))*100</f>
+        <v>45.3</v>
+      </c>
+      <c r="E32" s="7">
+        <f>EXP(logistic!E32)/(1+EXP(logistic!E32))*100</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D33" s="7">
+        <f>EXP(logistic!D33)/(1+EXP(logistic!D33))*100</f>
+        <v>39.300000000000004</v>
+      </c>
+      <c r="E33" s="7">
+        <f>EXP(logistic!E33)/(1+EXP(logistic!E33))*100</f>
+        <v>42.900000000000006</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="D34" s="7">
+        <f>EXP(logistic!D34)/(1+EXP(logistic!D34))*100</f>
+        <v>36.29999999999999</v>
+      </c>
+      <c r="E34" s="7">
+        <f>EXP(logistic!E34)/(1+EXP(logistic!E34))*100</f>
+        <v>42.5</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="D35" s="7">
+        <f>EXP(logistic!D35)/(1+EXP(logistic!D35))*100</f>
+        <v>35</v>
+      </c>
+      <c r="E35" s="7">
+        <f>EXP(logistic!E35)/(1+EXP(logistic!E35))*100</f>
+        <v>40.699999999999996</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="D36" s="7">
+        <f>EXP(logistic!D36)/(1+EXP(logistic!D36))*100</f>
+        <v>36.5</v>
+      </c>
+      <c r="E36" s="7">
+        <f>EXP(logistic!E36)/(1+EXP(logistic!E36))*100</f>
+        <v>43.2</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="D37" s="7">
+        <f>EXP(logistic!D37)/(1+EXP(logistic!D37))*100</f>
+        <v>36.008053507664343</v>
+      </c>
+      <c r="E37" s="7">
+        <f>EXP(logistic!E37)/(1+EXP(logistic!E37))*100</f>
+        <v>43.508609648211234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="D38" s="7">
+        <f>EXP(logistic!D38)/(1+EXP(logistic!D38))*100</f>
+        <v>35.519028690521381</v>
+      </c>
+      <c r="E38" s="7">
+        <f>EXP(logistic!E38)/(1+EXP(logistic!E38))*100</f>
+        <v>43.817723188791561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="D39" s="7">
+        <f>EXP(logistic!D39)/(1+EXP(logistic!D39))*100</f>
+        <v>35.033009392188816</v>
+      </c>
+      <c r="E39" s="7">
+        <f>EXP(logistic!E39)/(1+EXP(logistic!E39))*100</f>
+        <v>44.127317391770511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="D40" s="7">
+        <f>EXP(logistic!D40)/(1+EXP(logistic!D40))*100</f>
+        <v>34.550077075653839</v>
+      </c>
+      <c r="E40" s="7">
+        <f>EXP(logistic!E40)/(1+EXP(logistic!E40))*100</f>
+        <v>44.437368878863445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="D41" s="7">
+        <f>EXP(logistic!D41)/(1+EXP(logistic!D41))*100</f>
+        <v>34.070310782759208</v>
+      </c>
+      <c r="E41" s="7">
+        <f>EXP(logistic!E41)/(1+EXP(logistic!E41))*100</f>
+        <v>44.747854130361873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="D42" s="7">
+        <f>EXP(logistic!D42)/(1+EXP(logistic!D42))*100</f>
+        <v>33.593787097485503</v>
+      </c>
+      <c r="E42" s="7">
+        <f>EXP(logistic!E42)/(1+EXP(logistic!E42))*100</f>
+        <v>45.058749492115986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="D43" s="7">
+        <f>EXP(logistic!D43)/(1+EXP(logistic!D43))*100</f>
+        <v>33.120580113028318</v>
+      </c>
+      <c r="E43" s="7">
+        <f>EXP(logistic!E43)/(1+EXP(logistic!E43))*100</f>
+        <v>45.37003118260516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="D44" s="7">
+        <f>EXP(logistic!D44)/(1+EXP(logistic!D44))*100</f>
+        <v>32.650761402659732</v>
+      </c>
+      <c r="E44" s="7">
+        <f>EXP(logistic!E44)/(1+EXP(logistic!E44))*100</f>
+        <v>45.681675300092024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:C48" si="1">1+C44</f>
+        <v>2031</v>
+      </c>
+      <c r="D45" s="7">
+        <f>EXP(logistic!D45)/(1+EXP(logistic!D45))*100</f>
+        <v>32.184399994354465</v>
+      </c>
+      <c r="E45" s="7">
+        <f>EXP(logistic!E45)/(1+EXP(logistic!E45))*100</f>
+        <v>45.993657829855458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="D46" s="7">
+        <f>EXP(logistic!D46)/(1+EXP(logistic!D46))*100</f>
+        <v>31.721562349152478</v>
+      </c>
+      <c r="E46" s="7">
+        <f>EXP(logistic!E46)/(1+EXP(logistic!E46))*100</f>
+        <v>46.305954651498332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="D47" s="7">
+        <f>EXP(logistic!D47)/(1+EXP(logistic!D47))*100</f>
+        <v>31.262312343221293</v>
+      </c>
+      <c r="E47" s="7">
+        <f>EXP(logistic!E47)/(1+EXP(logistic!E47))*100</f>
+        <v>46.618541546324828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="D48" s="7">
+        <f>EXP(logistic!D48)/(1+EXP(logistic!D48))*100</f>
+        <v>30.806711253573337</v>
+      </c>
+      <c r="E48" s="7">
+        <f>EXP(logistic!E48)/(1+EXP(logistic!E48))*100</f>
+        <v>46.931394204783025</v>
       </c>
     </row>
   </sheetData>
